--- a/data/all_years_ДВН_Датчикинаправленияветра.xlsx
+++ b/data/all_years_ДВН_Датчикинаправленияветра.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,17 +518,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0097230032</t>
+          <t>0055230002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-09-17T00:00:00Z</t>
+          <t>2024-11-02T00:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>С-ДФН/18-09-2023/285062049</t>
+          <t>С-В/03-11-2023/293576180</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ООО "СТАНДАРТ-12"</t>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
         </is>
       </c>
       <c r="K2" t="b">
@@ -559,16 +559,16 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1-285062049</t>
+          <t>1-293576180</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-09-18T00:00:00Z</t>
+          <t>2023-11-03T00:00:00Z</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.779288612979868e+18</v>
+        <v>1.78218780514268e+18</v>
       </c>
     </row>
     <row r="3">
@@ -584,17 +584,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0097230033</t>
+          <t>0055230010</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-09-17T00:00:00Z</t>
+          <t>2024-11-01T00:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>С-ДФН/18-09-2023/285062047</t>
+          <t>С-В/02-11-2023/299036376</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>ООО "СТАНДАРТ-12"</t>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
         </is>
       </c>
       <c r="K3" t="b">
@@ -625,16 +625,16 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1-285062047</t>
+          <t>1-299036376</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-09-18T00:00:00Z</t>
+          <t>2023-11-02T00:00:00Z</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.779288612992451e+18</v>
+        <v>1.784362428970041e+18</v>
       </c>
     </row>
     <row r="4">
@@ -650,17 +650,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0097230024</t>
+          <t>0055230006</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-09-17T00:00:00Z</t>
+          <t>2024-10-24T00:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>С-ДФН/18-09-2023/285062059</t>
+          <t>С-В/25-10-2023/298148928</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>ООО "СТАНДАРТ-12"</t>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
         </is>
       </c>
       <c r="K4" t="b">
@@ -691,16 +691,16 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1-285062059</t>
+          <t>1-298148928</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-09-18T00:00:00Z</t>
+          <t>2023-10-25T00:00:00Z</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.779288613136105e+18</v>
+        <v>1.78398648731068e+18</v>
       </c>
     </row>
     <row r="5">
@@ -716,17 +716,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0097230025</t>
+          <t>0055230150</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-09-17T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>С-ДФН/18-09-2023/285062058</t>
+          <t>С-ДФН/10-10-2023/293923790</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -757,16 +757,16 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1-285062058</t>
+          <t>1-293923790</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-09-18T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.7792886131403e+18</v>
+        <v>1.782448015164834e+18</v>
       </c>
     </row>
     <row r="6">
@@ -782,17 +782,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0097230026</t>
+          <t>0055230142</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-09-17T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>С-ДФН/18-09-2023/285062057</t>
+          <t>С-ДФН/10-10-2023/293923791</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -823,16 +823,16 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1-285062057</t>
+          <t>1-293923791</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-09-18T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.779288613149737e+18</v>
+        <v>1.782448015169028e+18</v>
       </c>
     </row>
     <row r="7">
@@ -848,17 +848,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0097230027</t>
+          <t>0055230140</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-09-17T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>С-ДФН/18-09-2023/285062055</t>
+          <t>С-ДФН/10-10-2023/293923792</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -889,16 +889,16 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1-285062055</t>
+          <t>1-293923792</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-09-18T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.779288613158126e+18</v>
+        <v>1.782448015173222e+18</v>
       </c>
     </row>
     <row r="8">
@@ -914,17 +914,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0097230028</t>
+          <t>0055230139</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-09-17T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>С-ДФН/18-09-2023/285062054</t>
+          <t>С-ДФН/10-10-2023/293923793</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -955,16 +955,16 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1-285062054</t>
+          <t>1-293923793</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-09-18T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.779288613163368e+18</v>
+        <v>1.782448015178465e+18</v>
       </c>
     </row>
     <row r="9">
@@ -980,17 +980,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0097230029</t>
+          <t>0055230137</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-09-17T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>С-ДФН/18-09-2023/285062052</t>
+          <t>С-ДФН/10-10-2023/293923794</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1021,16 +1021,16 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1-285062052</t>
+          <t>1-293923794</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-09-18T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.779288613171757e+18</v>
+        <v>1.78244801519e+18</v>
       </c>
     </row>
     <row r="10">
@@ -1046,17 +1046,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0097230030</t>
+          <t>0055230131</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-09-17T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>С-ДФН/18-09-2023/285062051</t>
+          <t>С-ДФН/10-10-2023/293881056</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1087,16 +1087,16 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1-285062051</t>
+          <t>1-293881056</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-09-18T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.779288613180146e+18</v>
+        <v>1.782445711551365e+18</v>
       </c>
     </row>
     <row r="11">
@@ -1112,17 +1112,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0097230031</t>
+          <t>0055230134</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-09-17T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>С-ДФН/18-09-2023/285062050</t>
+          <t>С-ДФН/10-10-2023/293881055</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1153,16 +1153,16 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1-285062050</t>
+          <t>1-293881055</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-09-18T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.779288613189583e+18</v>
+        <v>1.782445711617425e+18</v>
       </c>
     </row>
     <row r="12">
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0055230110</t>
+          <t>0055230135</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-27T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>С-ДФН/28-07-2023/271566428</t>
+          <t>С-ДФН/10-10-2023/293881054</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1219,16 +1219,16 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1-271566428</t>
+          <t>1-293881054</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-07-28T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.774867229690561e+18</v>
+        <v>1.78244571162162e+18</v>
       </c>
     </row>
     <row r="13">
@@ -1244,17 +1244,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0055230109</t>
+          <t>0055230138</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-27T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>С-ДФН/28-07-2023/271566429</t>
+          <t>С-ДФН/10-10-2023/293881053</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1285,16 +1285,16 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1-271566429</t>
+          <t>1-293881053</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-07-28T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.774867229690561e+18</v>
+        <v>1.782445711625814e+18</v>
       </c>
     </row>
     <row r="14">
@@ -1310,17 +1310,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0055230108</t>
+          <t>0055230141</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-27T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>С-ДФН/28-07-2023/271566430</t>
+          <t>С-ДФН/10-10-2023/293881052</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1351,16 +1351,16 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1-271566430</t>
+          <t>1-293881052</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-07-28T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1.774867229690561e+18</v>
+        <v>1.782445711630008e+18</v>
       </c>
     </row>
     <row r="15">
@@ -1376,17 +1376,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0055230107</t>
+          <t>0055230143</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-27T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>С-ДФН/28-07-2023/271566431</t>
+          <t>С-ДФН/10-10-2023/293881051</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1417,16 +1417,16 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1-271566431</t>
+          <t>1-293881051</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-07-28T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1.774867229691609e+18</v>
+        <v>1.782445711635251e+18</v>
       </c>
     </row>
     <row r="16">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0055230106</t>
+          <t>0055230124</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-27T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>С-ДФН/28-07-2023/271566432</t>
+          <t>С-ДФН/10-10-2023/293881050</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1483,16 +1483,16 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1-271566432</t>
+          <t>1-293881050</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-07-28T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1.774867229692658e+18</v>
+        <v>1.782445711639446e+18</v>
       </c>
     </row>
     <row r="17">
@@ -1508,17 +1508,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0055230105</t>
+          <t>0055230125</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-27T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>С-ДФН/28-07-2023/271566433</t>
+          <t>С-ДФН/10-10-2023/293881049</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1549,16 +1549,16 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1-271566433</t>
+          <t>1-293881049</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-07-28T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1.774867229692658e+18</v>
+        <v>1.782445711662514e+18</v>
       </c>
     </row>
     <row r="18">
@@ -1574,17 +1574,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0055230104</t>
+          <t>0055230126</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-27T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>С-ДФН/28-07-2023/271566434</t>
+          <t>С-ДФН/10-10-2023/293881048</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1615,16 +1615,16 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1-271566434</t>
+          <t>1-293881048</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-07-28T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>1.774867229747184e+18</v>
+        <v>1.782445711667757e+18</v>
       </c>
     </row>
     <row r="19">
@@ -1640,17 +1640,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0055230103</t>
+          <t>0055230127</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-27T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>С-ДФН/28-07-2023/271566435</t>
+          <t>С-ДФН/10-10-2023/293881046</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1681,16 +1681,16 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1-271566435</t>
+          <t>1-293881046</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-07-28T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>1.774867229748232e+18</v>
+        <v>1.782445711685583e+18</v>
       </c>
     </row>
     <row r="20">
@@ -1706,17 +1706,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0055230102</t>
+          <t>0055230128</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-27T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>С-ДФН/28-07-2023/271566436</t>
+          <t>С-ДФН/10-10-2023/293881045</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1747,16 +1747,16 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1-271566436</t>
+          <t>1-293881045</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-07-28T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>1.774867229749281e+18</v>
+        <v>1.782445711693971e+18</v>
       </c>
     </row>
     <row r="21">
@@ -1772,17 +1772,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0055230094</t>
+          <t>0055230129</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-26T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>С-ДФН/27-07-2023/271536158</t>
+          <t>С-ДФН/10-10-2023/293881044</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1813,16 +1813,16 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1-271536158</t>
+          <t>1-293881044</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-07-27T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>1.774867150276657e+18</v>
+        <v>1.782445711754789e+18</v>
       </c>
     </row>
     <row r="22">
@@ -1838,17 +1838,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0055230101</t>
+          <t>0055230130</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-26T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>С-ДФН/27-07-2023/271566437</t>
+          <t>С-ДФН/10-10-2023/293881043</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1879,16 +1879,16 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1-271566437</t>
+          <t>1-293881043</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-07-27T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>1.774867229749281e+18</v>
+        <v>1.782445711758983e+18</v>
       </c>
     </row>
     <row r="23">
@@ -1904,17 +1904,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0055230100</t>
+          <t>0055230132</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-26T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>С-ДФН/27-07-2023/271566439</t>
+          <t>С-ДФН/10-10-2023/293881042</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1945,16 +1945,16 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1-271566439</t>
+          <t>1-293881042</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-07-27T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>1.774867229750329e+18</v>
+        <v>1.782445711763177e+18</v>
       </c>
     </row>
     <row r="24">
@@ -1970,17 +1970,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0055230099</t>
+          <t>0055230133</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-26T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>С-ДФН/27-07-2023/271566440</t>
+          <t>С-ДФН/10-10-2023/293881041</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2011,16 +2011,16 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1-271566440</t>
+          <t>1-293881041</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-07-27T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>1.774867229750329e+18</v>
+        <v>1.782445711767372e+18</v>
       </c>
     </row>
     <row r="25">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0055230098</t>
+          <t>0055230136</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-26T00:00:00Z</t>
+          <t>2024-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>С-ДФН/27-07-2023/271566441</t>
+          <t>С-ДФН/10-10-2023/293881040</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2077,16 +2077,16 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1-271566441</t>
+          <t>1-293881040</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-07-27T00:00:00Z</t>
+          <t>2023-10-10T00:00:00Z</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>1.774867229751378e+18</v>
+        <v>1.782445711772615e+18</v>
       </c>
     </row>
     <row r="26">
@@ -2102,17 +2102,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0055230097</t>
+          <t>0055230160</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-26T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>С-ДФН/27-07-2023/271566442</t>
+          <t>С-ДФН/09-10-2023/293923779</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2143,16 +2143,16 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1-271566442</t>
+          <t>1-293923779</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-07-27T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>1.774867229752426e+18</v>
+        <v>1.78244801504949e+18</v>
       </c>
     </row>
     <row r="27">
@@ -2168,17 +2168,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0055230096</t>
+          <t>0055230159</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-26T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>С-ДФН/27-07-2023/271566443</t>
+          <t>С-ДФН/09-10-2023/293923780</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2209,16 +2209,16 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1-271566443</t>
+          <t>1-293923780</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-07-27T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1.774867229752426e+18</v>
+        <v>1.782448015074656e+18</v>
       </c>
     </row>
     <row r="28">
@@ -2234,17 +2234,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0055230095</t>
+          <t>0055230158</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-26T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>С-ДФН/27-07-2023/271566444</t>
+          <t>С-ДФН/09-10-2023/293923781</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2275,16 +2275,16 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1-271566444</t>
+          <t>1-293923781</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-07-27T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>1.774867229752426e+18</v>
+        <v>1.782448015079899e+18</v>
       </c>
     </row>
     <row r="29">
@@ -2300,17 +2300,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0055230093</t>
+          <t>0055230157</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-26T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>С-ДФН/27-07-2023/271568158</t>
+          <t>С-ДФН/09-10-2023/293923782</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2341,16 +2341,16 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1-271568158</t>
+          <t>1-293923782</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-07-27T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>1.774867230475944e+18</v>
+        <v>1.782448015084093e+18</v>
       </c>
     </row>
     <row r="30">
@@ -2366,17 +2366,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0055230092</t>
+          <t>0055230153</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-26T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>С-ДФН/27-07-2023/271568159</t>
+          <t>С-ДФН/09-10-2023/293923787</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2407,16 +2407,16 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1-271568159</t>
+          <t>1-293923787</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-07-27T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>1.774867230480138e+18</v>
+        <v>1.782448015089336e+18</v>
       </c>
     </row>
     <row r="31">
@@ -2432,17 +2432,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0055230091</t>
+          <t>0055230152</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-25T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>С-ДФН/26-07-2023/271568160</t>
+          <t>С-ДФН/09-10-2023/293923788</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2473,16 +2473,16 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1-271568160</t>
+          <t>1-293923788</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>1.774867230509498e+18</v>
+        <v>1.782448015093531e+18</v>
       </c>
     </row>
     <row r="32">
@@ -2498,17 +2498,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0055230090</t>
+          <t>0055230151</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-25T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>С-ДФН/26-07-2023/271568161</t>
+          <t>С-ДФН/09-10-2023/293923789</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2539,16 +2539,16 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1-271568161</t>
+          <t>1-293923789</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>1.77486723053047e+18</v>
+        <v>1.782448015098774e+18</v>
       </c>
     </row>
     <row r="33">
@@ -2564,17 +2564,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0055230089</t>
+          <t>0055230156</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-25T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>С-ДФН/26-07-2023/271568162</t>
+          <t>С-ДФН/09-10-2023/293923783</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2605,16 +2605,16 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1-271568162</t>
+          <t>1-293923783</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>1.774867230542004e+18</v>
+        <v>1.782448015102968e+18</v>
       </c>
     </row>
     <row r="34">
@@ -2630,17 +2630,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0055230088</t>
+          <t>0055230155</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-25T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>С-ДФН/26-07-2023/271568163</t>
+          <t>С-ДФН/09-10-2023/293923784</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2671,16 +2671,16 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1-271568163</t>
+          <t>1-293923784</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1.774867230544101e+18</v>
+        <v>1.782448015108211e+18</v>
       </c>
     </row>
     <row r="35">
@@ -2696,17 +2696,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0055230087</t>
+          <t>0055230154</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-25T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>С-ДФН/26-07-2023/271568164</t>
+          <t>С-ДФН/09-10-2023/293923785</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2737,16 +2737,16 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1-271568164</t>
+          <t>1-293923785</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>1.774867230546199e+18</v>
+        <v>1.782448015112405e+18</v>
       </c>
     </row>
     <row r="36">
@@ -2762,17 +2762,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0055230086</t>
+          <t>0055230163</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-25T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>С-ДФН/26-07-2023/271568165</t>
+          <t>С-ДФН/09-10-2023/293881097</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2803,16 +2803,16 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>1-271568165</t>
+          <t>1-293881097</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>1.774867230561927e+18</v>
+        <v>1.782445711951921e+18</v>
       </c>
     </row>
     <row r="37">
@@ -2828,17 +2828,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0055230085</t>
+          <t>0055230164</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-25T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>С-ДФН/26-07-2023/271568166</t>
+          <t>С-ДФН/09-10-2023/293881096</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2869,16 +2869,16 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>1-271568166</t>
+          <t>1-293881096</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>1.77486723056717e+18</v>
+        <v>1.78244571196031e+18</v>
       </c>
     </row>
     <row r="38">
@@ -2894,17 +2894,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0055230084</t>
+          <t>0055230169</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-25T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>С-ДФН/26-07-2023/271568167</t>
+          <t>С-ДФН/09-10-2023/293881095</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2935,16 +2935,16 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1-271568167</t>
+          <t>1-293881095</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>1.774867230571364e+18</v>
+        <v>1.782445711965553e+18</v>
       </c>
     </row>
     <row r="39">
@@ -2960,17 +2960,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0055230083</t>
+          <t>0055230168</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-25T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>С-ДФН/26-07-2023/271568168</t>
+          <t>С-ДФН/09-10-2023/293881118</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3001,16 +3001,16 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1-271568168</t>
+          <t>1-293881118</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>1.774867230573462e+18</v>
+        <v>1.782445713922195e+18</v>
       </c>
     </row>
     <row r="40">
@@ -3026,17 +3026,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0055230082</t>
+          <t>0055230167</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-25T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>С-ДФН/26-07-2023/271568169</t>
+          <t>С-ДФН/09-10-2023/293881119</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3067,16 +3067,16 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>1-271568169</t>
+          <t>1-293881119</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>1.774867230599676e+18</v>
+        <v>1.782445713984061e+18</v>
       </c>
     </row>
     <row r="41">
@@ -3092,17 +3092,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0055230081</t>
+          <t>0055230161</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-25T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>С-ДФН/26-07-2023/271568170</t>
+          <t>С-ДФН/09-10-2023/293881123</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3133,16 +3133,16 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>1-271568170</t>
+          <t>1-293881123</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2023-07-26T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>1.77486723060387e+18</v>
+        <v>1.782445714837602e+18</v>
       </c>
     </row>
     <row r="42">
@@ -3158,17 +3158,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0055230067</t>
+          <t>0055230162</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-06-13T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>С-В/14-06-2023/256236801</t>
+          <t>С-ДФН/09-10-2023/293881122</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K42" t="b">
@@ -3199,16 +3199,16 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>1-256236801</t>
+          <t>1-293881122</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>1.774861117165666e+18</v>
+        <v>1.782445714841797e+18</v>
       </c>
     </row>
     <row r="43">
@@ -3224,17 +3224,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0055230066</t>
+          <t>0055230165</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-06-13T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>С-В/14-06-2023/256236802</t>
+          <t>С-ДФН/09-10-2023/293881121</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K43" t="b">
@@ -3265,16 +3265,16 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>1-256236802</t>
+          <t>1-293881121</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>1.774861117240115e+18</v>
+        <v>1.782445714917294e+18</v>
       </c>
     </row>
     <row r="44">
@@ -3290,17 +3290,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0055230073</t>
+          <t>0055230166</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-06-13T00:00:00Z</t>
+          <t>2024-10-08T00:00:00Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>С-В/14-06-2023/256236795</t>
+          <t>С-ДФН/09-10-2023/293881120</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K44" t="b">
@@ -3331,16 +3331,16 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>1-256236795</t>
+          <t>1-293881120</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00Z</t>
+          <t>2023-10-09T00:00:00Z</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>1.774861117326098e+18</v>
+        <v>1.782445714925683e+18</v>
       </c>
     </row>
     <row r="45">
@@ -3356,17 +3356,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0055230072</t>
+          <t>0097230032</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-06-13T00:00:00Z</t>
+          <t>2024-09-17T00:00:00Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>С-В/14-06-2023/256236796</t>
+          <t>С-ДФН/18-09-2023/285062049</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K45" t="b">
@@ -3397,16 +3397,16 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>1-256236796</t>
+          <t>1-285062049</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00Z</t>
+          <t>2023-09-18T00:00:00Z</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>1.774861117326098e+18</v>
+        <v>1.779288612979868e+18</v>
       </c>
     </row>
     <row r="46">
@@ -3422,17 +3422,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0055230071</t>
+          <t>0097230033</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-06-13T00:00:00Z</t>
+          <t>2024-09-17T00:00:00Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>С-В/14-06-2023/256236797</t>
+          <t>С-ДФН/18-09-2023/285062047</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K46" t="b">
@@ -3463,16 +3463,16 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1-256236797</t>
+          <t>1-285062047</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00Z</t>
+          <t>2023-09-18T00:00:00Z</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>1.774861117327147e+18</v>
+        <v>1.779288612992451e+18</v>
       </c>
     </row>
     <row r="47">
@@ -3488,17 +3488,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0055230070</t>
+          <t>0097230024</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-06-13T00:00:00Z</t>
+          <t>2024-09-17T00:00:00Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>С-В/14-06-2023/256236798</t>
+          <t>С-ДФН/18-09-2023/285062059</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K47" t="b">
@@ -3529,16 +3529,16 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1-256236798</t>
+          <t>1-285062059</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00Z</t>
+          <t>2023-09-18T00:00:00Z</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>1.77486111845122e+18</v>
+        <v>1.779288613136105e+18</v>
       </c>
     </row>
     <row r="48">
@@ -3554,17 +3554,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0055230069</t>
+          <t>0097230025</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-06-13T00:00:00Z</t>
+          <t>2024-09-17T00:00:00Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>С-В/14-06-2023/256236799</t>
+          <t>С-ДФН/18-09-2023/285062058</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K48" t="b">
@@ -3595,16 +3595,16 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1-256236799</t>
+          <t>1-285062058</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00Z</t>
+          <t>2023-09-18T00:00:00Z</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>1.774861118462755e+18</v>
+        <v>1.7792886131403e+18</v>
       </c>
     </row>
     <row r="49">
@@ -3620,17 +3620,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0055230068</t>
+          <t>0097230026</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-06-13T00:00:00Z</t>
+          <t>2024-09-17T00:00:00Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>С-В/14-06-2023/256236800</t>
+          <t>С-ДФН/18-09-2023/285062057</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K49" t="b">
@@ -3661,16 +3661,16 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>1-256236800</t>
+          <t>1-285062057</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00Z</t>
+          <t>2023-09-18T00:00:00Z</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>1.774861118754259e+18</v>
+        <v>1.779288613149737e+18</v>
       </c>
     </row>
     <row r="50">
@@ -3686,17 +3686,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0055230065</t>
+          <t>0097230027</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-06-13T00:00:00Z</t>
+          <t>2024-09-17T00:00:00Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>С-В/14-06-2023/256236803</t>
+          <t>С-ДФН/18-09-2023/285062055</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K50" t="b">
@@ -3727,16 +3727,16 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>1-256236803</t>
+          <t>1-285062055</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00Z</t>
+          <t>2023-09-18T00:00:00Z</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>1.774861118906302e+18</v>
+        <v>1.779288613158126e+18</v>
       </c>
     </row>
     <row r="51">
@@ -3752,17 +3752,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0055230064</t>
+          <t>0097230028</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-06-13T00:00:00Z</t>
+          <t>2024-09-17T00:00:00Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>С-В/14-06-2023/256236804</t>
+          <t>С-ДФН/18-09-2023/285062054</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K51" t="b">
@@ -3793,16 +3793,16 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1-256236804</t>
+          <t>1-285062054</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00Z</t>
+          <t>2023-09-18T00:00:00Z</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>1.774861118906302e+18</v>
+        <v>1.779288613163368e+18</v>
       </c>
     </row>
     <row r="52">
@@ -3818,17 +3818,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0055230063</t>
+          <t>0097230029</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-06-13T00:00:00Z</t>
+          <t>2024-09-17T00:00:00Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>С-В/14-06-2023/256236805</t>
+          <t>С-ДФН/18-09-2023/285062052</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K52" t="b">
@@ -3859,16 +3859,16 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1-256236805</t>
+          <t>1-285062052</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00Z</t>
+          <t>2023-09-18T00:00:00Z</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>1.774861118907351e+18</v>
+        <v>1.779288613171757e+18</v>
       </c>
     </row>
     <row r="53">
@@ -3884,17 +3884,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0055230062</t>
+          <t>0097230030</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-06-13T00:00:00Z</t>
+          <t>2024-09-17T00:00:00Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>С-В/14-06-2023/256236806</t>
+          <t>С-ДФН/18-09-2023/285062051</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K53" t="b">
@@ -3925,16 +3925,16 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>1-256236806</t>
+          <t>1-285062051</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00Z</t>
+          <t>2023-09-18T00:00:00Z</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>1.7748611189084e+18</v>
+        <v>1.779288613180146e+18</v>
       </c>
     </row>
     <row r="54">
@@ -3950,17 +3950,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0055230061</t>
+          <t>0097230031</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-06-13T00:00:00Z</t>
+          <t>2024-09-17T00:00:00Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>С-В/14-06-2023/256236807</t>
+          <t>С-ДФН/18-09-2023/285062050</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K54" t="b">
@@ -3991,16 +3991,16 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>1-256236807</t>
+          <t>1-285062050</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2023-06-14T00:00:00Z</t>
+          <t>2023-09-18T00:00:00Z</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>1.7748611189084e+18</v>
+        <v>1.779288613189583e+18</v>
       </c>
     </row>
     <row r="55">
@@ -4016,17 +4016,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0055230060</t>
+          <t>0097230008</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-08-17T00:00:00Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381818</t>
+          <t>С-ДФН/18-08-2023/293881062</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K55" t="b">
@@ -4057,16 +4057,16 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>1-249381818</t>
+          <t>1-293881062</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-08-18T00:00:00Z</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>1.774857968061252e+18</v>
+        <v>1.782445711502082e+18</v>
       </c>
     </row>
     <row r="56">
@@ -4082,17 +4082,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0055230059</t>
+          <t>0055230110</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381819</t>
+          <t>С-ДФН/28-07-2023/271566428</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K56" t="b">
@@ -4123,16 +4123,16 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1-249381819</t>
+          <t>1-271566428</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-28T00:00:00Z</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>1.774857968065446e+18</v>
+        <v>1.774867229690561e+18</v>
       </c>
     </row>
     <row r="57">
@@ -4148,17 +4148,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0055230058</t>
+          <t>0055230109</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381820</t>
+          <t>С-ДФН/28-07-2023/271566429</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K57" t="b">
@@ -4189,16 +4189,16 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>1-249381820</t>
+          <t>1-271566429</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-28T00:00:00Z</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>1.774857968073834e+18</v>
+        <v>1.774867229690561e+18</v>
       </c>
     </row>
     <row r="58">
@@ -4214,17 +4214,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0055230057</t>
+          <t>0055230108</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381821</t>
+          <t>С-ДФН/28-07-2023/271566430</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K58" t="b">
@@ -4255,16 +4255,16 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>1-249381821</t>
+          <t>1-271566430</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-28T00:00:00Z</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>1.774857968088515e+18</v>
+        <v>1.774867229690561e+18</v>
       </c>
     </row>
     <row r="59">
@@ -4280,17 +4280,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0055230056</t>
+          <t>0055230107</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381822</t>
+          <t>С-ДФН/28-07-2023/271566431</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K59" t="b">
@@ -4321,16 +4321,16 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>1-249381822</t>
+          <t>1-271566431</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-28T00:00:00Z</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>1.774857968089563e+18</v>
+        <v>1.774867229691609e+18</v>
       </c>
     </row>
     <row r="60">
@@ -4346,17 +4346,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0055230055</t>
+          <t>0055230106</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381823</t>
+          <t>С-ДФН/28-07-2023/271566432</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K60" t="b">
@@ -4387,16 +4387,16 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>1-249381823</t>
+          <t>1-271566432</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-28T00:00:00Z</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>1.774857968092709e+18</v>
+        <v>1.774867229692658e+18</v>
       </c>
     </row>
     <row r="61">
@@ -4412,17 +4412,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0055230054</t>
+          <t>0055230105</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381825</t>
+          <t>С-ДФН/28-07-2023/271566433</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K61" t="b">
@@ -4453,16 +4453,16 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1-249381825</t>
+          <t>1-271566433</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-28T00:00:00Z</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>1.774857968096903e+18</v>
+        <v>1.774867229692658e+18</v>
       </c>
     </row>
     <row r="62">
@@ -4478,17 +4478,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0055230053</t>
+          <t>0055230104</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381826</t>
+          <t>С-ДФН/28-07-2023/271566434</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K62" t="b">
@@ -4519,16 +4519,16 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>1-249381826</t>
+          <t>1-271566434</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-28T00:00:00Z</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>1.774857968101097e+18</v>
+        <v>1.774867229747184e+18</v>
       </c>
     </row>
     <row r="63">
@@ -4544,17 +4544,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0055230052</t>
+          <t>0055230103</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381827</t>
+          <t>С-ДФН/28-07-2023/271566435</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K63" t="b">
@@ -4585,16 +4585,16 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>1-249381827</t>
+          <t>1-271566435</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-28T00:00:00Z</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>1.774857968103195e+18</v>
+        <v>1.774867229748232e+18</v>
       </c>
     </row>
     <row r="64">
@@ -4610,17 +4610,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0055230051</t>
+          <t>0055230102</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381828</t>
+          <t>С-ДФН/28-07-2023/271566436</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K64" t="b">
@@ -4651,16 +4651,16 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>1-249381828</t>
+          <t>1-271566436</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-28T00:00:00Z</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>1.77485796810634e+18</v>
+        <v>1.774867229749281e+18</v>
       </c>
     </row>
     <row r="65">
@@ -4676,17 +4676,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0055230050</t>
+          <t>0055230101</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381829</t>
+          <t>С-ДФН/27-07-2023/271566437</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K65" t="b">
@@ -4717,16 +4717,16 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>1-249381829</t>
+          <t>1-271566437</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>1.774857968108438e+18</v>
+        <v>1.774867229749281e+18</v>
       </c>
     </row>
     <row r="66">
@@ -4742,17 +4742,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0055230049</t>
+          <t>0055230100</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381830</t>
+          <t>С-ДФН/27-07-2023/271566439</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K66" t="b">
@@ -4783,16 +4783,16 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>1-249381830</t>
+          <t>1-271566439</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>1.774857968111583e+18</v>
+        <v>1.774867229750329e+18</v>
       </c>
     </row>
     <row r="67">
@@ -4808,17 +4808,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0055230048</t>
+          <t>0055230099</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381831</t>
+          <t>С-ДФН/27-07-2023/271566440</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K67" t="b">
@@ -4849,16 +4849,16 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>1-249381831</t>
+          <t>1-271566440</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>1.77485796811368e+18</v>
+        <v>1.774867229750329e+18</v>
       </c>
     </row>
     <row r="68">
@@ -4874,17 +4874,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0055230047</t>
+          <t>0055230098</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381832</t>
+          <t>С-ДФН/27-07-2023/271566441</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K68" t="b">
@@ -4915,16 +4915,16 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>1-249381832</t>
+          <t>1-271566441</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>1.774857968114729e+18</v>
+        <v>1.774867229751378e+18</v>
       </c>
     </row>
     <row r="69">
@@ -4940,17 +4940,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0055230046</t>
+          <t>0055230097</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381833</t>
+          <t>С-ДФН/27-07-2023/271566442</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K69" t="b">
@@ -4981,16 +4981,16 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>1-249381833</t>
+          <t>1-271566442</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>1.774857968117875e+18</v>
+        <v>1.774867229752426e+18</v>
       </c>
     </row>
     <row r="70">
@@ -5006,17 +5006,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0055230045</t>
+          <t>0055230094</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381834</t>
+          <t>С-ДФН/27-07-2023/271536158</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K70" t="b">
@@ -5047,16 +5047,16 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>1-249381834</t>
+          <t>1-293798339</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>1.774857968119972e+18</v>
+        <v>1.782439116312412e+18</v>
       </c>
     </row>
     <row r="71">
@@ -5072,17 +5072,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0055230044</t>
+          <t>0055230095</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381835</t>
+          <t>С-ДФН/27-07-2023/271566444</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K71" t="b">
@@ -5113,16 +5113,16 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>1-249381835</t>
+          <t>1-293798338</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>1.774857968123118e+18</v>
+        <v>1.782439116320801e+18</v>
       </c>
     </row>
     <row r="72">
@@ -5138,17 +5138,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0055230043</t>
+          <t>0055230092</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381837</t>
+          <t>С-ДФН/27-07-2023/271568159</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K72" t="b">
@@ -5179,16 +5179,16 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>1-249381837</t>
+          <t>1-293798341</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>1.774857968127312e+18</v>
+        <v>1.782439116566168e+18</v>
       </c>
     </row>
     <row r="73">
@@ -5204,17 +5204,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0055230042</t>
+          <t>0055230093</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381838</t>
+          <t>С-ДФН/27-07-2023/271568158</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K73" t="b">
@@ -5245,16 +5245,16 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>1-249381838</t>
+          <t>1-293798340</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>1.774857968130458e+18</v>
+        <v>1.78243911657875e+18</v>
       </c>
     </row>
     <row r="74">
@@ -5270,17 +5270,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0055230041</t>
+          <t>0055230096</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-05-21T00:00:00Z</t>
+          <t>2024-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>С-В/22-05-2023/249381839</t>
+          <t>С-ДФН/27-07-2023/271566443</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K74" t="b">
@@ -5311,16 +5311,16 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>1-249381839</t>
+          <t>1-293798361</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2023-05-22T00:00:00Z</t>
+          <t>2023-07-27T00:00:00Z</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>1.774857968137798e+18</v>
+        <v>1.782439117463749e+18</v>
       </c>
     </row>
     <row r="75">
@@ -5336,17 +5336,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0055230040</t>
+          <t>0055230091</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-07-25T00:00:00Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704660</t>
+          <t>С-ДФН/26-07-2023/271568160</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K75" t="b">
@@ -5377,16 +5377,16 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>1-246704660</t>
+          <t>1-271568160</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>1.774858545918902e+18</v>
+        <v>1.774867230509498e+18</v>
       </c>
     </row>
     <row r="76">
@@ -5402,17 +5402,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0055230039</t>
+          <t>0055230090</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-07-25T00:00:00Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704661</t>
+          <t>С-ДФН/26-07-2023/271568161</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K76" t="b">
@@ -5443,16 +5443,16 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>1-246704661</t>
+          <t>1-271568161</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>1.774858545919951e+18</v>
+        <v>1.77486723053047e+18</v>
       </c>
     </row>
     <row r="77">
@@ -5468,17 +5468,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0055230038</t>
+          <t>0055230089</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-07-25T00:00:00Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704662</t>
+          <t>С-ДФН/26-07-2023/271568162</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K77" t="b">
@@ -5509,16 +5509,16 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>1-246704662</t>
+          <t>1-271568162</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>1.774858545919951e+18</v>
+        <v>1.774867230542004e+18</v>
       </c>
     </row>
     <row r="78">
@@ -5534,17 +5534,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0055230037</t>
+          <t>0055230088</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-07-25T00:00:00Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704663</t>
+          <t>С-ДФН/26-07-2023/271568163</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K78" t="b">
@@ -5575,16 +5575,16 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>1-246704663</t>
+          <t>1-271568163</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>1.774858545919951e+18</v>
+        <v>1.774867230544101e+18</v>
       </c>
     </row>
     <row r="79">
@@ -5600,17 +5600,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0055230036</t>
+          <t>0055230087</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-07-25T00:00:00Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704664</t>
+          <t>С-ДФН/26-07-2023/271568164</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K79" t="b">
@@ -5641,16 +5641,16 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>1-246704664</t>
+          <t>1-271568164</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>1.774858545920999e+18</v>
+        <v>1.774867230546199e+18</v>
       </c>
     </row>
     <row r="80">
@@ -5666,17 +5666,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0055230035</t>
+          <t>0055230086</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-07-25T00:00:00Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704666</t>
+          <t>С-ДФН/26-07-2023/271568165</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K80" t="b">
@@ -5707,16 +5707,16 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>1-246704666</t>
+          <t>1-271568165</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>1.774858545922048e+18</v>
+        <v>1.774867230561927e+18</v>
       </c>
     </row>
     <row r="81">
@@ -5732,17 +5732,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0055230034</t>
+          <t>0055230085</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-07-25T00:00:00Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704667</t>
+          <t>С-ДФН/26-07-2023/271568166</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K81" t="b">
@@ -5773,16 +5773,16 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>1-246704667</t>
+          <t>1-271568166</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>1.774858545922048e+18</v>
+        <v>1.77486723056717e+18</v>
       </c>
     </row>
     <row r="82">
@@ -5798,17 +5798,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0055230033</t>
+          <t>0055230084</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-07-25T00:00:00Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704668</t>
+          <t>С-ДФН/26-07-2023/271568167</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K82" t="b">
@@ -5839,16 +5839,16 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>1-246704668</t>
+          <t>1-271568167</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>1.774858545923097e+18</v>
+        <v>1.774867230571364e+18</v>
       </c>
     </row>
     <row r="83">
@@ -5864,17 +5864,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0055230032</t>
+          <t>0055230083</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-07-25T00:00:00Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704669</t>
+          <t>С-ДФН/26-07-2023/271568168</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K83" t="b">
@@ -5905,16 +5905,16 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>1-246704669</t>
+          <t>1-271568168</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>1.774858545923097e+18</v>
+        <v>1.774867230573462e+18</v>
       </c>
     </row>
     <row r="84">
@@ -5930,17 +5930,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0055230031</t>
+          <t>0055230082</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-07-25T00:00:00Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704670</t>
+          <t>С-ДФН/26-07-2023/271568169</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K84" t="b">
@@ -5971,16 +5971,16 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>1-246704670</t>
+          <t>1-271568169</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>1.774858545923097e+18</v>
+        <v>1.774867230599676e+18</v>
       </c>
     </row>
     <row r="85">
@@ -5996,17 +5996,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0055230030</t>
+          <t>0055230081</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-07-25T00:00:00Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704671</t>
+          <t>С-ДФН/26-07-2023/271568170</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+          <t>ООО "СТАНДАРТ-12"</t>
         </is>
       </c>
       <c r="K85" t="b">
@@ -6037,16 +6037,16 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>1-246704671</t>
+          <t>1-271568170</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-07-26T00:00:00Z</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>1.774858545924145e+18</v>
+        <v>1.77486723060387e+18</v>
       </c>
     </row>
     <row r="86">
@@ -6062,17 +6062,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0055230029</t>
+          <t>0055230067</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-06-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704672</t>
+          <t>С-В/14-06-2023/256236801</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6103,16 +6103,16 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>1-246704672</t>
+          <t>1-256236801</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-06-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>1.774858545924145e+18</v>
+        <v>1.774861117165666e+18</v>
       </c>
     </row>
     <row r="87">
@@ -6128,17 +6128,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0055230028</t>
+          <t>0055230066</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-06-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704673</t>
+          <t>С-В/14-06-2023/256236802</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6169,16 +6169,16 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>1-246704673</t>
+          <t>1-256236802</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-06-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>1.774858545925194e+18</v>
+        <v>1.774861117240115e+18</v>
       </c>
     </row>
     <row r="88">
@@ -6194,17 +6194,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0055230027</t>
+          <t>0055230073</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-06-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704674</t>
+          <t>С-В/14-06-2023/256236795</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -6235,16 +6235,16 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>1-246704674</t>
+          <t>1-256236795</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-06-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>1.774858545925194e+18</v>
+        <v>1.774861117326098e+18</v>
       </c>
     </row>
     <row r="89">
@@ -6260,17 +6260,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0055230026</t>
+          <t>0055230072</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-06-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704675</t>
+          <t>С-В/14-06-2023/256236796</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6301,16 +6301,16 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>1-246704675</t>
+          <t>1-256236796</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-06-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>1.774858545925194e+18</v>
+        <v>1.774861117326098e+18</v>
       </c>
     </row>
     <row r="90">
@@ -6326,17 +6326,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0055230025</t>
+          <t>0055230071</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-06-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704676</t>
+          <t>С-В/14-06-2023/256236797</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6367,16 +6367,16 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>1-246704676</t>
+          <t>1-256236797</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-06-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>1.774858545926242e+18</v>
+        <v>1.774861117327147e+18</v>
       </c>
     </row>
     <row r="91">
@@ -6392,17 +6392,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0055230024</t>
+          <t>0055230070</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-06-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704677</t>
+          <t>С-В/14-06-2023/256236798</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6433,16 +6433,16 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>1-246704677</t>
+          <t>1-256236798</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-06-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>1.774858545927291e+18</v>
+        <v>1.77486111845122e+18</v>
       </c>
     </row>
     <row r="92">
@@ -6458,17 +6458,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0055230023</t>
+          <t>0055230069</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-06-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704678</t>
+          <t>С-В/14-06-2023/256236799</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6499,16 +6499,16 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>1-246704678</t>
+          <t>1-256236799</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-06-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>1.774858545927291e+18</v>
+        <v>1.774861118462755e+18</v>
       </c>
     </row>
     <row r="93">
@@ -6524,17 +6524,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0055230022</t>
+          <t>0055230068</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-06-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704679</t>
+          <t>С-В/14-06-2023/256236800</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6565,16 +6565,16 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>1-246704679</t>
+          <t>1-256236800</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-06-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>1.774858545928339e+18</v>
+        <v>1.774861118754259e+18</v>
       </c>
     </row>
     <row r="94">
@@ -6590,17 +6590,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0055230021</t>
+          <t>0055230065</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-06-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704680</t>
+          <t>С-В/14-06-2023/256236803</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6631,16 +6631,16 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>1-246704680</t>
+          <t>1-256236803</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-06-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>1.774858545928339e+18</v>
+        <v>1.774861118906302e+18</v>
       </c>
     </row>
     <row r="95">
@@ -6656,17 +6656,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0055230020</t>
+          <t>0055230064</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-06-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704681</t>
+          <t>С-В/14-06-2023/256236804</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6697,16 +6697,16 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>1-246704681</t>
+          <t>1-256236804</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-06-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>1.774858545929388e+18</v>
+        <v>1.774861118906302e+18</v>
       </c>
     </row>
     <row r="96">
@@ -6722,17 +6722,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0055230019</t>
+          <t>0055230063</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-06-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704682</t>
+          <t>С-В/14-06-2023/256236805</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6763,16 +6763,16 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>1-246704682</t>
+          <t>1-256236805</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-06-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>1.774858545930437e+18</v>
+        <v>1.774861118907351e+18</v>
       </c>
     </row>
     <row r="97">
@@ -6788,17 +6788,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0055230018</t>
+          <t>0055230062</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-06-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704683</t>
+          <t>С-В/14-06-2023/256236806</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6829,16 +6829,16 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>1-246704683</t>
+          <t>1-256236806</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-06-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>1.774858545930437e+18</v>
+        <v>1.7748611189084e+18</v>
       </c>
     </row>
     <row r="98">
@@ -6854,17 +6854,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0055230017</t>
+          <t>0055230061</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-06-13T00:00:00Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704684</t>
+          <t>С-В/14-06-2023/256236807</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -6895,16 +6895,16 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>1-246704684</t>
+          <t>1-256236807</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-06-14T00:00:00Z</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>1.774858545931485e+18</v>
+        <v>1.7748611189084e+18</v>
       </c>
     </row>
     <row r="99">
@@ -6920,17 +6920,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0055230016</t>
+          <t>0055230060</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-05-21T00:00:00Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704685</t>
+          <t>С-В/22-05-2023/249381818</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6961,16 +6961,16 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>1-246704685</t>
+          <t>1-249381818</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-05-22T00:00:00Z</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>1.774858545932534e+18</v>
+        <v>1.774857968061252e+18</v>
       </c>
     </row>
     <row r="100">
@@ -6986,17 +6986,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0055230015</t>
+          <t>0055230059</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-05-21T00:00:00Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704686</t>
+          <t>С-В/22-05-2023/249381819</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -7027,16 +7027,16 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>1-246704686</t>
+          <t>1-249381819</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-05-22T00:00:00Z</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>1.774858545933582e+18</v>
+        <v>1.774857968065446e+18</v>
       </c>
     </row>
     <row r="101">
@@ -7052,17 +7052,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0055230014</t>
+          <t>0055230058</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-05-21T00:00:00Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704687</t>
+          <t>С-В/22-05-2023/249381820</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7093,16 +7093,16 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>1-246704687</t>
+          <t>1-249381820</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-05-22T00:00:00Z</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>1.774858545934631e+18</v>
+        <v>1.774857968073834e+18</v>
       </c>
     </row>
     <row r="102">
@@ -7118,17 +7118,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0055230013</t>
+          <t>0055230057</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-05-21T00:00:00Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704688</t>
+          <t>С-В/22-05-2023/249381821</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -7159,16 +7159,16 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>1-246704688</t>
+          <t>1-249381821</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-05-22T00:00:00Z</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>1.77494864014449e+18</v>
+        <v>1.774948255071732e+18</v>
       </c>
     </row>
     <row r="103">
@@ -7184,17 +7184,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0055230012</t>
+          <t>0055230056</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-05-21T00:00:00Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704689</t>
+          <t>С-В/22-05-2023/249381822</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7225,16 +7225,16 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>1-246704689</t>
+          <t>1-249381822</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-05-22T00:00:00Z</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>1.77494864014449e+18</v>
+        <v>1.77494825507278e+18</v>
       </c>
     </row>
     <row r="104">
@@ -7250,17 +7250,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0055230011</t>
+          <t>0055230055</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-05-21T00:00:00Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704690</t>
+          <t>С-В/22-05-2023/249381823</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -7291,16 +7291,16 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>1-246704690</t>
+          <t>1-249381823</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-05-22T00:00:00Z</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>1.77494864014449e+18</v>
+        <v>1.774948255074877e+18</v>
       </c>
     </row>
     <row r="105">
@@ -7316,17 +7316,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0055230010</t>
+          <t>0055230054</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-05-21T00:00:00Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704691</t>
+          <t>С-В/22-05-2023/249381825</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -7357,16 +7357,16 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>1-246704691</t>
+          <t>1-249381825</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-05-22T00:00:00Z</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>1.77494864014449e+18</v>
+        <v>1.774948255076975e+18</v>
       </c>
     </row>
     <row r="106">
@@ -7382,17 +7382,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0055230009</t>
+          <t>0055230053</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-05-21T00:00:00Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704692</t>
+          <t>С-В/22-05-2023/249381826</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -7423,16 +7423,16 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>1-246704692</t>
+          <t>1-249381826</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-05-22T00:00:00Z</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>1.774948640145539e+18</v>
+        <v>1.774948255078023e+18</v>
       </c>
     </row>
     <row r="107">
@@ -7448,17 +7448,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0055230008</t>
+          <t>0055230052</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-05-21T00:00:00Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704693</t>
+          <t>С-В/22-05-2023/249381827</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -7489,16 +7489,16 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>1-246704693</t>
+          <t>1-249381827</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-05-22T00:00:00Z</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>1.774948640145539e+18</v>
+        <v>1.774948255079072e+18</v>
       </c>
     </row>
     <row r="108">
@@ -7514,17 +7514,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0055230007</t>
+          <t>0055230051</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-05-21T00:00:00Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704694</t>
+          <t>С-В/22-05-2023/249381828</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -7555,16 +7555,16 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>1-246704694</t>
+          <t>1-249381828</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-05-22T00:00:00Z</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>1.774948640145539e+18</v>
+        <v>1.77494825508012e+18</v>
       </c>
     </row>
     <row r="109">
@@ -7580,17 +7580,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0055230006</t>
+          <t>0055230050</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-05-21T00:00:00Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704695</t>
+          <t>С-В/22-05-2023/249381829</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -7621,16 +7621,16 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>1-246704695</t>
+          <t>1-249381829</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-05-22T00:00:00Z</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>1.774948640145539e+18</v>
+        <v>1.774948255081169e+18</v>
       </c>
     </row>
     <row r="110">
@@ -7646,17 +7646,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0055230005</t>
+          <t>0055230049</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-05-21T00:00:00Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704696</t>
+          <t>С-В/22-05-2023/249381830</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -7687,16 +7687,16 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>1-246704696</t>
+          <t>1-249381830</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-05-22T00:00:00Z</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>1.774948640145539e+18</v>
+        <v>1.774948255082217e+18</v>
       </c>
     </row>
     <row r="111">
@@ -7712,17 +7712,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0055230004</t>
+          <t>0055230048</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-05-21T00:00:00Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704697</t>
+          <t>С-В/22-05-2023/249381831</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7753,16 +7753,16 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>1-246704697</t>
+          <t>1-249381831</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-05-22T00:00:00Z</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>1.774948640145539e+18</v>
+        <v>1.774948255083266e+18</v>
       </c>
     </row>
     <row r="112">
@@ -7778,17 +7778,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0055230003</t>
+          <t>0055230047</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-05-21T00:00:00Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704698</t>
+          <t>С-В/22-05-2023/249381832</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -7819,16 +7819,16 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>1-246704698</t>
+          <t>1-249381832</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-05-22T00:00:00Z</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>1.774948640146588e+18</v>
+        <v>1.774948255083266e+18</v>
       </c>
     </row>
     <row r="113">
@@ -7844,17 +7844,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0055230002</t>
+          <t>0055230046</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-05-21T00:00:00Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704699</t>
+          <t>С-В/22-05-2023/249381833</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -7885,16 +7885,16 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>1-246704699</t>
+          <t>1-249381833</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-05-22T00:00:00Z</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>1.774948640146588e+18</v>
+        <v>1.774948255084315e+18</v>
       </c>
     </row>
     <row r="114">
@@ -7910,17 +7910,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0055230001</t>
+          <t>0055230045</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-05-10T00:00:00Z</t>
+          <t>2024-05-21T00:00:00Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>С-В/11-05-2023/246704700</t>
+          <t>С-В/22-05-2023/249381834</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -7951,16 +7951,16 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>1-246704700</t>
+          <t>1-249381834</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2023-05-11T00:00:00Z</t>
+          <t>2023-05-22T00:00:00Z</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>1.774948640146588e+18</v>
+        <v>1.774948255084315e+18</v>
       </c>
     </row>
     <row r="115">
@@ -7976,56 +7976,2960 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>0055230044</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2024-05-21T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>С-В/22-05-2023/249381835</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>1-249381835</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>2023-05-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>1.774948255086412e+18</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0055230043</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2024-05-21T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>С-В/22-05-2023/249381837</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>1-249381837</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>2023-05-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>1.77494825508746e+18</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0055230042</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2024-05-21T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>С-В/22-05-2023/249381838</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>1-249381838</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>2023-05-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>1.774948255088509e+18</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0055230041</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2024-05-21T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>С-В/22-05-2023/249381839</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>1-249381839</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>2023-05-22T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>1.774948255090606e+18</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0055230040</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704660</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>1-246704660</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>1.77494864013715e+18</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0055230039</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704661</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>1-246704661</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>1.77494864013715e+18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0055230038</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704662</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>1-246704662</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>1.77494864013715e+18</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0055230037</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704663</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>1-246704663</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>1.77494864013715e+18</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0055230036</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704664</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>1-246704664</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>1.774948640138199e+18</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0055230035</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704666</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>1-246704666</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>1.774948640138199e+18</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0055230034</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704667</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>1-246704667</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>1.774948640138199e+18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0055230033</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704668</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>1-246704668</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>1.774948640138199e+18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0055230032</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704669</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>1-246704669</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>1.774948640138199e+18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0055230031</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704670</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>1-246704670</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>1.774948640138199e+18</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0055230030</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704671</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>1-246704671</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>1.774948640139248e+18</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0055230029</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704672</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>1-246704672</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>1.774948640139248e+18</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0055230028</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704673</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>1-246704673</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>1.774948640139248e+18</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0055230027</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704674</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>1-246704674</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>1.774948640139248e+18</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0055230026</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704675</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>1-246704675</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>1.774948640139248e+18</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0055230025</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704676</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>1-246704676</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>1.774948640139248e+18</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0055230024</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704677</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>1-246704677</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>1.774948640140296e+18</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0055230023</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704678</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>1-246704678</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>1.774948640140296e+18</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0055230022</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704679</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>1-246704679</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>1.774948640140296e+18</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0055230021</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704680</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>1-246704680</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>1.774948640140296e+18</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0055230020</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704681</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>1-246704681</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>1.774948640141345e+18</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0055230019</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704682</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>1-246704682</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>1.774948640141345e+18</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0055230018</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704683</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>1-246704683</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>1.774948640141345e+18</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0055230017</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704684</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>1-246704684</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>1.774948640141345e+18</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0055230016</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704685</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>1-246704685</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>1.774948640143442e+18</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0055230015</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704686</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>1-246704686</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>1.774948640143442e+18</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0055230014</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704687</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>1-246704687</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>1.774948640143442e+18</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0055230013</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704688</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>1-246704688</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>1.77494864014449e+18</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0055230012</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704689</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>1-246704689</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>1.77494864014449e+18</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0055230011</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704690</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>1-246704690</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>1.77494864014449e+18</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0055230010</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704691</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>1-246704691</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>1.77494864014449e+18</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0055230009</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704692</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>1-246704692</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>1.774948640145539e+18</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0055230008</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704693</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>1-246704693</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>1.774948640145539e+18</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0055230007</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704694</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>1-246704694</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>1.774948640145539e+18</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0055230006</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704695</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>1-246704695</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>1.774948640145539e+18</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0055230005</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704696</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>1-246704696</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>1.774948640145539e+18</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0055230004</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704697</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>1-246704697</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>1.774948640145539e+18</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>0055230003</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704698</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>1-246704698</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>1.774948640146588e+18</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>0055230002</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704699</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>1-246704699</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>1.774948640146588e+18</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0055230001</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2024-05-10T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>С-В/11-05-2023/246704700</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
+        </is>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>1-246704700</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>2023-05-11T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>1.774948640146588e+18</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>76645-19</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Нет модификации</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
           <t>0097220006</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>2024-02-02T00:00:00Z</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>С-В/03-02-2023/226574453</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Пригодно</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>ДВН-02</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Датчики направления ветра</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>2023</v>
-      </c>
-      <c r="J115" t="inlineStr">
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Пригодно</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>ДВН-02</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Датчики направления ветра</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>2023</v>
+      </c>
+      <c r="J159" t="inlineStr">
         <is>
           <t>ФГУП "ВНИИМ ИМ. Д.И.МЕНДЕЛЕЕВА"</t>
         </is>
       </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>1-226574453</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr">
+      <c r="M159" t="inlineStr">
         <is>
           <t>2023-02-03T00:00:00Z</t>
         </is>
       </c>
-      <c r="N115" t="n">
+      <c r="N159" t="n">
         <v>1.774952730982351e+18</v>
       </c>
     </row>
